--- a/16172-LAB SP-ITE3 2A-M306.xlsx
+++ b/16172-LAB SP-ITE3 2A-M306.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>1.20</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1221,6 +1224,9 @@
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -1233,6 +1239,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1345,7 +1354,9 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1410,6 +1421,9 @@
       <c r="G18" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="I18" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1430,7 +1444,9 @@
         <v>41</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1441,6 +1457,9 @@
         <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1486,6 +1505,9 @@
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="I24" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -1515,6 +1537,9 @@
         <v>41</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1596,6 +1621,9 @@
       <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="I33" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
@@ -1660,6 +1688,9 @@
       <c r="G39" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="I39" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
@@ -1675,6 +1706,9 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="19" t="s">
         <v>41</v>
       </c>
     </row>
